--- a/Dataset-Training/Dataset-Training-100.xlsx
+++ b/Dataset-Training/Dataset-Training-100.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ekstensi\TA\Program-Git\Dataset-Training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Ekstensi\Tugas-Akhir\Dataset-Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
-  <si>
-    <t>Asrama</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="90">
   <si>
     <t>asrama lebih diperbaiki lagi apalagi soal air yang kotor dan fasilitas asrama yang rusak seperti dispenser</t>
   </si>
@@ -654,809 +651,1992 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B100"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B1">
+        <v>-1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C2">
+        <v>-1</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+        <v>-1</v>
+      </c>
+      <c r="C6">
+        <v>-1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C14">
+        <v>-1</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+      <c r="E14">
+        <v>-1</v>
+      </c>
+      <c r="F14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>-1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+      <c r="E16">
+        <v>-1</v>
+      </c>
+      <c r="F16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C17">
+        <v>-1</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+      <c r="E17">
+        <v>-1</v>
+      </c>
+      <c r="F17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>4</v>
-      </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+      <c r="E22">
+        <v>-1</v>
+      </c>
+      <c r="F22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C27">
+        <v>-1</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+      <c r="E27">
+        <v>-1</v>
+      </c>
+      <c r="F27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C28">
+        <v>-1</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+      <c r="E28">
+        <v>-1</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>-1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>29</v>
       </c>
       <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>30</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33">
+        <v>-1</v>
+      </c>
+      <c r="E33">
+        <v>-1</v>
+      </c>
+      <c r="F33">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>31</v>
       </c>
       <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34">
+        <v>-1</v>
+      </c>
+      <c r="E34">
+        <v>-1</v>
+      </c>
+      <c r="F34">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>32</v>
       </c>
       <c r="B35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>35</v>
       </c>
       <c r="B38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C38">
+        <v>-1</v>
+      </c>
+      <c r="D38">
+        <v>-1</v>
+      </c>
+      <c r="E38">
+        <v>-1</v>
+      </c>
+      <c r="F38">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>36</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>37</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>38</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>39</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>-1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>40</v>
       </c>
       <c r="B43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>41</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>42</v>
       </c>
       <c r="B45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>43</v>
       </c>
       <c r="B46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C46">
+        <v>-1</v>
+      </c>
+      <c r="D46">
+        <v>-1</v>
+      </c>
+      <c r="E46">
+        <v>-1</v>
+      </c>
+      <c r="F46">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>44</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>4</v>
-      </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>-1</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>46</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C50">
+        <v>-1</v>
+      </c>
+      <c r="D50">
+        <v>-1</v>
+      </c>
+      <c r="E50">
+        <v>-1</v>
+      </c>
+      <c r="F50">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>47</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
+        <v>29</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>48</v>
       </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>30</v>
-      </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
       <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>-1</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>50</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C55">
+        <v>-1</v>
+      </c>
+      <c r="D55">
+        <v>-1</v>
+      </c>
+      <c r="E55">
+        <v>-1</v>
+      </c>
+      <c r="F55">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>51</v>
       </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>30</v>
-      </c>
       <c r="B58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>-1</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>52</v>
       </c>
       <c r="B59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C59">
+        <v>-1</v>
+      </c>
+      <c r="D59">
+        <v>-1</v>
+      </c>
+      <c r="E59">
+        <v>-1</v>
+      </c>
+      <c r="F59">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>53</v>
       </c>
       <c r="B60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C60">
+        <v>-1</v>
+      </c>
+      <c r="D60">
+        <v>-1</v>
+      </c>
+      <c r="E60">
+        <v>-1</v>
+      </c>
+      <c r="F60">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>54</v>
       </c>
       <c r="B61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>55</v>
       </c>
       <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>56</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
+        <v>29</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>57</v>
       </c>
-      <c r="B64">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>30</v>
-      </c>
       <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>58</v>
       </c>
       <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>59</v>
       </c>
       <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>60</v>
       </c>
       <c r="B68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>61</v>
       </c>
       <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>62</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>63</v>
       </c>
       <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>-1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>64</v>
       </c>
       <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>65</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>66</v>
       </c>
       <c r="B74">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>67</v>
       </c>
       <c r="B75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>68</v>
       </c>
       <c r="B76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>69</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>-1</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>70</v>
       </c>
       <c r="B78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>71</v>
       </c>
       <c r="B79">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C79">
+        <v>-1</v>
+      </c>
+      <c r="D79">
+        <v>-1</v>
+      </c>
+      <c r="E79">
+        <v>-1</v>
+      </c>
+      <c r="F79">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>72</v>
       </c>
       <c r="B80">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>73</v>
       </c>
       <c r="B81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>74</v>
       </c>
       <c r="B82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>75</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>76</v>
       </c>
       <c r="B84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>77</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>78</v>
       </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>76</v>
-      </c>
       <c r="B87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>79</v>
       </c>
       <c r="B88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>-1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>80</v>
       </c>
       <c r="B89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>81</v>
       </c>
       <c r="B90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>82</v>
       </c>
       <c r="B91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C91">
+        <v>-1</v>
+      </c>
+      <c r="D91">
+        <v>-1</v>
+      </c>
+      <c r="E91">
+        <v>-1</v>
+      </c>
+      <c r="F91">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>83</v>
       </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C92">
+        <v>-1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>84</v>
       </c>
-      <c r="B93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>4</v>
-      </c>
       <c r="B94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>85</v>
       </c>
       <c r="B95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>86</v>
       </c>
       <c r="B96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>87</v>
       </c>
       <c r="B97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>88</v>
       </c>
       <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+        <v>-1</v>
+      </c>
+      <c r="C98">
+        <v>-1</v>
+      </c>
+      <c r="D98">
+        <v>-1</v>
+      </c>
+      <c r="E98">
+        <v>-1</v>
+      </c>
+      <c r="F98">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>89</v>
       </c>
       <c r="B99">
         <v>1</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>90</v>
-      </c>
-      <c r="B100">
-        <v>0</v>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
